--- a/문서/자유수강권자 추가(4월)/마술(수강).xlsx
+++ b/문서/자유수강권자 추가(4월)/마술(수강).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>주야</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>고건</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>김민성</t>
   </si>
   <si>
     <t>4반</t>
@@ -81,7 +87,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="36">
+  <fonts count="44">
     <font>
       <name val="Arial"/>
       <family val="2"/>
@@ -342,8 +348,64 @@
       <color rgb="00000000"/>
       <sz val="11"/>
     </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="42">
     <fill>
       <patternFill/>
     </fill>
@@ -446,8 +508,32 @@
     <fill>
       <patternFill/>
     </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
   </fills>
-  <borders count="34">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -950,11 +1036,131 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="43">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
@@ -1087,6 +1293,38 @@
       <protection hidden="0" locked="1"/>
     </xf>
     <xf applyAlignment="1" applyProtection="1" borderId="33" fillId="33" fontId="35" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="34" fillId="34" fontId="36" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="35" fillId="35" fontId="37" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="36" fillId="36" fontId="38" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="37" fillId="37" fontId="39" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="38" fillId="38" fontId="40" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="39" fillId="39" fontId="41" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="40" fillId="40" fontId="42" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf applyAlignment="1" applyProtection="1" borderId="41" fillId="41" fontId="43" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="0" locked="1"/>
     </xf>
@@ -1388,7 +1626,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1456,13 +1694,13 @@
         <v>9</v>
       </c>
       <c s="21" r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c s="22" r="D3" t="s">
         <v>13</v>
       </c>
-      <c s="22" r="D3" t="s">
+      <c s="23" r="E3" t="s">
         <v>14</v>
-      </c>
-      <c s="23" r="E3" t="s">
-        <v>15</v>
       </c>
       <c s="24" r="F3" t="n">
         <v>0</v>
@@ -1479,16 +1717,16 @@
         <v>8</v>
       </c>
       <c s="28" r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c s="29" r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c s="30" r="D4" t="s">
         <v>16</v>
       </c>
-      <c s="29" r="C4" t="s">
+      <c s="31" r="E4" t="s">
         <v>17</v>
-      </c>
-      <c s="30" r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c s="31" r="E4" t="s">
-        <v>19</v>
       </c>
       <c s="32" r="F4" t="n">
         <v>0</v>
@@ -1497,6 +1735,32 @@
         <v>22060</v>
       </c>
       <c s="34" r="H4" t="n">
+        <v>-22060</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c s="35" r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c s="36" r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c s="37" r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c s="38" r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c s="39" r="E5" t="s">
+        <v>21</v>
+      </c>
+      <c s="40" r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c s="41" r="G5" t="n">
+        <v>22060</v>
+      </c>
+      <c s="42" r="H5" t="n">
         <v>-22060</v>
       </c>
     </row>
